--- a/PYTHON/CALCULAR IR - INSS  - Atual.xlsx
+++ b/PYTHON/CALCULAR IR - INSS  - Atual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Recursos Humanos\FOLHA\2023\05 2023\CONFERENCIA ENCARGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luana\Documents\GitHub\ALURA\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D5B00-86BC-4BAD-9932-5BDB0EDBA65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1690A1AC-42A4-457F-80BF-DE9B5E8A2E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CÁLCULO DE INSS-IRRF" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -1497,7 +1508,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2047,6 +2058,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="21" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="23" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2503,45 +2523,45 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" style="154" customWidth="1"/>
-    <col min="2" max="2" width="0.85546875" style="154" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="154" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="142" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" style="142" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="0.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="0.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="0.81640625" style="154" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="154" customWidth="1"/>
+    <col min="4" max="4" width="0.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" style="142" customWidth="1"/>
+    <col min="7" max="7" width="0.81640625" style="142" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.81640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="0.81640625" style="2" customWidth="1"/>
     <col min="19" max="19" width="15" style="2" customWidth="1"/>
     <col min="20" max="20" width="2" style="2" customWidth="1"/>
     <col min="21" max="21" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="2" customWidth="1"/>
-    <col min="23" max="23" width="27.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="1.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="142" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.85546875" style="142" customWidth="1"/>
-    <col min="27" max="27" width="21.140625" style="143" customWidth="1"/>
-    <col min="28" max="28" width="1.7109375" style="2" customWidth="1"/>
-    <col min="29" max="1027" width="8.5703125" style="2" customWidth="1"/>
-    <col min="1028" max="16384" width="9.140625" style="2"/>
+    <col min="23" max="23" width="27.7265625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="1.81640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="142" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.81640625" style="142" customWidth="1"/>
+    <col min="27" max="27" width="21.1796875" style="143" customWidth="1"/>
+    <col min="28" max="28" width="1.7265625" style="2" customWidth="1"/>
+    <col min="29" max="1027" width="8.54296875" style="2" customWidth="1"/>
+    <col min="1028" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="144"/>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -2572,7 +2592,7 @@
       <c r="AB1" s="38"/>
       <c r="AC1" s="38"/>
     </row>
-    <row r="2" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="145" t="s">
         <v>35</v>
       </c>
@@ -2611,12 +2631,12 @@
       <c r="Z2" s="38"/>
       <c r="AA2" s="170">
         <f>S16+H11+H10</f>
-        <v>643.48450000000003</v>
+        <v>1673.5125</v>
       </c>
       <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
     </row>
-    <row r="3" spans="1:29" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="147"/>
       <c r="B3" s="148"/>
       <c r="C3" s="147"/>
@@ -2647,7 +2667,7 @@
       <c r="AB3" s="74"/>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="149"/>
       <c r="B4" s="148"/>
       <c r="C4" s="149"/>
@@ -2690,7 +2710,7 @@
       <c r="AB4" s="83"/>
       <c r="AC4" s="38"/>
     </row>
-    <row r="5" spans="1:29" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="149"/>
       <c r="B5" s="148"/>
       <c r="C5" s="149"/>
@@ -2721,12 +2741,14 @@
       <c r="AB5" s="83"/>
       <c r="AC5" s="38"/>
     </row>
-    <row r="6" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="150">
-        <v>1907.79</v>
+        <v>5000</v>
       </c>
       <c r="B6" s="151"/>
-      <c r="C6" s="150"/>
+      <c r="C6" s="150">
+        <v>300</v>
+      </c>
       <c r="D6" s="41"/>
       <c r="E6" s="63" t="s">
         <v>1</v>
@@ -2735,7 +2757,7 @@
       <c r="G6" s="65"/>
       <c r="H6" s="66">
         <f>A16</f>
-        <v>3010.3599999999997</v>
+        <v>5000</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="181" t="s">
@@ -2747,7 +2769,7 @@
       <c r="N6" s="39"/>
       <c r="O6" s="67">
         <f>H8</f>
-        <v>3010.3599999999997</v>
+        <v>4700</v>
       </c>
       <c r="P6" s="68"/>
       <c r="Q6" s="67">
@@ -2773,9 +2795,9 @@
       <c r="AB6" s="83"/>
       <c r="AC6" s="38"/>
     </row>
-    <row r="7" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="55">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="B7" s="151"/>
       <c r="C7" s="55"/>
@@ -2787,7 +2809,7 @@
       <c r="G7" s="65"/>
       <c r="H7" s="45">
         <f>C16</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="168" t="s">
@@ -2799,7 +2821,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="164">
         <f>H9/K7</f>
-        <v>8.8101499999999984</v>
+        <v>16.130749999999999</v>
       </c>
       <c r="N7" s="39"/>
       <c r="O7" s="54"/>
@@ -2824,9 +2846,9 @@
       <c r="AB7" s="83"/>
       <c r="AC7" s="38"/>
     </row>
-    <row r="8" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="55">
-        <v>333.7</v>
+        <v>0</v>
       </c>
       <c r="B8" s="151"/>
       <c r="C8" s="55"/>
@@ -2838,7 +2860,7 @@
       <c r="G8" s="84"/>
       <c r="H8" s="51">
         <f>H6-H7</f>
-        <v>3010.3599999999997</v>
+        <v>4700</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="167" t="s">
@@ -2876,21 +2898,21 @@
       <c r="AB8" s="83"/>
       <c r="AC8" s="38"/>
     </row>
-    <row r="9" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="55">
-        <v>5.81</v>
+        <v>0</v>
       </c>
       <c r="B9" s="151"/>
       <c r="C9" s="55"/>
       <c r="D9" s="41"/>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="45">
+      <c r="F9" s="196"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="198">
         <f>S16</f>
-        <v>264.30449999999996</v>
+        <v>483.92250000000001</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="167" t="s">
@@ -2911,7 +2933,7 @@
       <c r="P9" s="75"/>
       <c r="Q9" s="54">
         <f>IF(O6-O8&lt;=0,0,O6-O8)</f>
-        <v>1690.3599999999997</v>
+        <v>3380</v>
       </c>
       <c r="R9" s="89"/>
       <c r="S9" s="54"/>
@@ -2932,9 +2954,9 @@
       <c r="AB9" s="83"/>
       <c r="AC9" s="38"/>
     </row>
-    <row r="10" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="55">
-        <v>22.81</v>
+        <v>0</v>
       </c>
       <c r="B10" s="151"/>
       <c r="C10" s="55"/>
@@ -2945,7 +2967,7 @@
       <c r="F10" s="44"/>
       <c r="G10" s="42"/>
       <c r="H10" s="45">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="180" t="s">
@@ -2982,9 +3004,9 @@
       <c r="AB10" s="83"/>
       <c r="AC10" s="38"/>
     </row>
-    <row r="11" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="55">
-        <v>119.58</v>
+        <v>0</v>
       </c>
       <c r="B11" s="151"/>
       <c r="C11" s="55"/>
@@ -2993,12 +3015,12 @@
         <v>4</v>
       </c>
       <c r="F11" s="166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="101"/>
       <c r="H11" s="48">
         <f>AA17*F11</f>
-        <v>379.18</v>
+        <v>189.59</v>
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
@@ -3012,7 +3034,7 @@
       <c r="P11" s="75"/>
       <c r="Q11" s="54">
         <f>IF(Q9-O10&lt;=0,0,Q9-O10)</f>
-        <v>439.06999999999971</v>
+        <v>2128.71</v>
       </c>
       <c r="R11" s="89"/>
       <c r="S11" s="54"/>
@@ -3033,9 +3055,9 @@
       <c r="AB11" s="83"/>
       <c r="AC11" s="38"/>
     </row>
-    <row r="12" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="55">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="B12" s="151"/>
       <c r="C12" s="55"/>
@@ -3047,7 +3069,7 @@
       <c r="G12" s="173"/>
       <c r="H12" s="174">
         <f>IF((H9+H10+H11)&lt;=AA6,AA6,(H9+H10+H11))</f>
-        <v>643.48450000000003</v>
+        <v>1673.5125</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="181" t="s">
@@ -3059,7 +3081,7 @@
       <c r="N12" s="39"/>
       <c r="O12" s="53">
         <f>IF(Q11&lt;=O11-O9,Q11,O11-O9)</f>
-        <v>439.06999999999971</v>
+        <v>1285.6500000000001</v>
       </c>
       <c r="P12" s="75"/>
       <c r="Q12" s="53">
@@ -3068,7 +3090,7 @@
       <c r="R12" s="94"/>
       <c r="S12" s="53">
         <f>O12*Q12</f>
-        <v>52.688399999999966</v>
+        <v>154.27799999999999</v>
       </c>
       <c r="T12" s="77"/>
       <c r="U12" s="38"/>
@@ -3081,9 +3103,9 @@
       <c r="AB12" s="83"/>
       <c r="AC12" s="38"/>
     </row>
-    <row r="13" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="55">
-        <v>64.17</v>
+        <v>0</v>
       </c>
       <c r="B13" s="151"/>
       <c r="C13" s="55"/>
@@ -3095,7 +3117,7 @@
       <c r="G13" s="100"/>
       <c r="H13" s="52">
         <f>H8-H12</f>
-        <v>2366.8754999999996</v>
+        <v>3026.4875000000002</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="168" t="s">
@@ -3107,7 +3129,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="165">
         <f>H16/K13</f>
-        <v>0.63718874999999853</v>
+        <v>2.7857708333333355</v>
       </c>
       <c r="N13" s="39"/>
       <c r="O13" s="54">
@@ -3116,7 +3138,7 @@
       <c r="P13" s="75"/>
       <c r="Q13" s="54">
         <f>IF(Q11-O12&lt;=0,0,Q11-O12)</f>
-        <v>0</v>
+        <v>843.06</v>
       </c>
       <c r="R13" s="89"/>
       <c r="S13" s="54"/>
@@ -3137,7 +3159,7 @@
       <c r="AB13" s="83"/>
       <c r="AC13" s="38"/>
     </row>
-    <row r="14" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="55"/>
       <c r="B14" s="151"/>
       <c r="C14" s="55"/>
@@ -3147,12 +3169,12 @@
       </c>
       <c r="F14" s="155">
         <f>IF(H13&lt;2112,0,IF(H13&lt;=2826.65,7.5%,IF(H13&lt;=3751.05,15%,IF(H13&lt;4664.68,22.5%,27.5%))))</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G14" s="103"/>
       <c r="H14" s="104">
         <f>H13*F14</f>
-        <v>177.51566249999996</v>
+        <v>453.97312500000004</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="167" t="s">
@@ -3169,7 +3191,7 @@
       <c r="N14" s="39"/>
       <c r="O14" s="105">
         <f>Q13</f>
-        <v>0</v>
+        <v>843.06</v>
       </c>
       <c r="P14" s="75"/>
       <c r="Q14" s="105">
@@ -3178,7 +3200,7 @@
       <c r="R14" s="94"/>
       <c r="S14" s="105">
         <f>O14*Q14</f>
-        <v>0</v>
+        <v>118.0284</v>
       </c>
       <c r="T14" s="77"/>
       <c r="U14" s="38"/>
@@ -3191,7 +3213,7 @@
       <c r="AB14" s="83"/>
       <c r="AC14" s="38"/>
     </row>
-    <row r="15" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="159"/>
       <c r="B15" s="160"/>
       <c r="C15" s="159"/>
@@ -3203,7 +3225,7 @@
       <c r="G15" s="65"/>
       <c r="H15" s="104">
         <f>IF(F14=0,0,IF(F14=Y9,AA9,IF(F14=Y11,AA11,IF(F14=Y13,AA13,IF(F14=Y15,AA15)))))</f>
-        <v>158.4</v>
+        <v>370.4</v>
       </c>
       <c r="I15" s="39"/>
       <c r="J15" s="167" t="s">
@@ -3226,7 +3248,7 @@
       <c r="R15" s="108"/>
       <c r="S15" s="106">
         <f>SUM(S8:S14)</f>
-        <v>264.30449999999996</v>
+        <v>483.92250000000001</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="38"/>
@@ -3245,15 +3267,15 @@
       <c r="AB15" s="83"/>
       <c r="AC15" s="38"/>
     </row>
-    <row r="16" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="152">
         <f>SUM(A6:A15)</f>
-        <v>3010.3599999999997</v>
+        <v>5000</v>
       </c>
       <c r="B16" s="151"/>
       <c r="C16" s="152">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="109" t="s">
@@ -3263,7 +3285,7 @@
       <c r="G16" s="111"/>
       <c r="H16" s="112">
         <f>IF(H14-H15&lt;0,0,H14-H15)</f>
-        <v>19.115662499999956</v>
+        <v>83.573125000000061</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="180" t="s">
@@ -3284,7 +3306,7 @@
       <c r="R16" s="114"/>
       <c r="S16" s="113">
         <f>IF(S15&lt;=Q6,S15,Q6)</f>
-        <v>264.30449999999996</v>
+        <v>483.92250000000001</v>
       </c>
       <c r="T16" s="116"/>
       <c r="U16" s="38"/>
@@ -3297,7 +3319,7 @@
       <c r="AB16" s="83"/>
       <c r="AC16" s="38"/>
     </row>
-    <row r="17" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="144"/>
       <c r="B17" s="144"/>
       <c r="C17" s="144"/>
@@ -3320,7 +3342,7 @@
       <c r="R17" s="117"/>
       <c r="S17" s="118">
         <f>'TABELA INSS - 2022'!G4</f>
-        <v>264.30319999999995</v>
+        <v>483.92000000000007</v>
       </c>
       <c r="T17" s="116"/>
       <c r="U17" s="38"/>
@@ -3339,7 +3361,7 @@
       <c r="AB17" s="83"/>
       <c r="AC17" s="38"/>
     </row>
-    <row r="18" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="153"/>
       <c r="B18" s="153"/>
       <c r="C18" s="144"/>
@@ -3351,7 +3373,7 @@
       <c r="G18" s="136"/>
       <c r="H18" s="137">
         <f>S17</f>
-        <v>264.30319999999995</v>
+        <v>483.92000000000007</v>
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -3375,7 +3397,7 @@
       <c r="AB18" s="129"/>
       <c r="AC18" s="38"/>
     </row>
-    <row r="19" spans="1:29" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="144"/>
       <c r="B19" s="144"/>
       <c r="C19" s="144"/>
@@ -3387,7 +3409,7 @@
       <c r="G19" s="132"/>
       <c r="H19" s="133">
         <f>H16</f>
-        <v>19.115662499999956</v>
+        <v>83.573125000000061</v>
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
@@ -3411,7 +3433,7 @@
       <c r="AB19" s="38"/>
       <c r="AC19" s="38"/>
     </row>
-    <row r="20" spans="1:29" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A20" s="153"/>
       <c r="B20" s="153"/>
       <c r="C20" s="144"/>
@@ -3423,7 +3445,7 @@
       <c r="G20" s="123"/>
       <c r="H20" s="124">
         <f>H8*8%</f>
-        <v>240.82879999999997</v>
+        <v>376</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
@@ -3447,7 +3469,7 @@
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="144"/>
       <c r="B21" s="144"/>
       <c r="C21" s="144"/>
@@ -3478,7 +3500,7 @@
       <c r="AB21" s="38"/>
       <c r="AC21" s="38"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="F22" s="140"/>
       <c r="G22" s="140"/>
       <c r="O22" s="141" t="s">
@@ -3496,7 +3518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="O23" s="156">
         <v>0.1</v>
       </c>
@@ -3512,7 +3534,7 @@
         <v>1735.99</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="O24" s="156">
         <v>0.2</v>
       </c>
@@ -3528,7 +3550,7 @@
         <v>1867.99</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="O25" s="156">
         <v>0.4</v>
       </c>
@@ -3544,11 +3566,11 @@
         <v>2435.79</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="E29" s="161"/>
       <c r="H29" s="140"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="E30" s="161"/>
       <c r="H30" s="140"/>
     </row>
@@ -3578,21 +3600,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="1" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="185" t="s">
         <v>22</v>
       </c>
@@ -3615,17 +3637,17 @@
       </c>
       <c r="J2" s="34">
         <f>'CÁLCULO DE INSS-IRRF'!H8</f>
-        <v>3010.3599999999997</v>
+        <v>4700</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="28">
         <f>_xlfn.IFS(J2&lt;=J4,J2*K4,J2&lt;=J5,L4+(J2-J4)*K5,J2&lt;=J6,L4+L5+(J2-J5)*K6,J2&lt;=J7,L4+L5+L6+(J2-J6)*K7,J2&gt;J7,L8)</f>
-        <v>264.30449999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>483.92250000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
@@ -3639,14 +3661,14 @@
       </c>
       <c r="G3" s="6">
         <f>'CÁLCULO DE INSS-IRRF'!H8</f>
-        <v>3010.3599999999997</v>
+        <v>4700</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>30</v>
       </c>
@@ -3664,7 +3686,7 @@
       </c>
       <c r="G4" s="1">
         <f>IF(G3&lt;=B4,G3*C4,IF(G3&lt;=B5,(G3*C5)-D5,IF(G3&lt;=B6,(G3*C6)-D6,IF(G3&lt;=B7,(G3*C7)-D7,D8))))</f>
-        <v>264.30319999999995</v>
+        <v>483.92000000000007</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="24">
@@ -3678,7 +3700,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <f>B4+0.01</f>
         <v>1320.01</v>
@@ -3706,7 +3728,7 @@
         <v>112.61609999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2427.36</v>
       </c>
@@ -3733,7 +3755,7 @@
         <v>154.27799999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>3641.04</v>
       </c>
@@ -3760,7 +3782,7 @@
         <v>511.077</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="193" t="s">
         <v>27</v>
       </c>
@@ -3780,14 +3802,14 @@
         <v>876.95</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="31"/>
       <c r="E9" s="36"/>
     </row>
-    <row r="14" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="182" t="s">
         <v>39</v>
       </c>
@@ -3800,7 +3822,7 @@
       <c r="H14" s="182"/>
       <c r="I14" s="182"/>
     </row>
-    <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A15" s="183">
         <v>876.95</v>
       </c>
@@ -3813,7 +3835,7 @@
       <c r="H15" s="183"/>
       <c r="I15" s="183"/>
     </row>
-    <row r="16" spans="1:12" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="192.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="184" t="s">
         <v>40</v>
       </c>
@@ -3852,41 +3874,41 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" style="154" customWidth="1"/>
-    <col min="2" max="2" width="0.85546875" style="154" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="154" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="142" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" style="142" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="0.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="0.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="0.81640625" style="154" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="154" customWidth="1"/>
+    <col min="4" max="4" width="0.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" style="142" customWidth="1"/>
+    <col min="7" max="7" width="0.81640625" style="142" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.81640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="0.81640625" style="2" customWidth="1"/>
     <col min="19" max="19" width="15" style="2" customWidth="1"/>
     <col min="20" max="20" width="2" style="2" customWidth="1"/>
     <col min="21" max="21" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="2" customWidth="1"/>
-    <col min="23" max="23" width="27.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="1.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="142" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.85546875" style="142" customWidth="1"/>
-    <col min="27" max="27" width="21.140625" style="143" customWidth="1"/>
-    <col min="28" max="28" width="1.7109375" style="2" customWidth="1"/>
-    <col min="29" max="1027" width="8.5703125" style="2" customWidth="1"/>
-    <col min="1028" max="16384" width="9.140625" style="2"/>
+    <col min="23" max="23" width="27.7265625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="1.81640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="142" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.81640625" style="142" customWidth="1"/>
+    <col min="27" max="27" width="21.1796875" style="143" customWidth="1"/>
+    <col min="28" max="28" width="1.7265625" style="2" customWidth="1"/>
+    <col min="29" max="1027" width="8.54296875" style="2" customWidth="1"/>
+    <col min="1028" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="144"/>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -3917,7 +3939,7 @@
       <c r="AB1" s="38"/>
       <c r="AC1" s="38"/>
     </row>
-    <row r="2" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="145" t="s">
         <v>35</v>
       </c>
@@ -3961,7 +3983,7 @@
       <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
     </row>
-    <row r="3" spans="1:29" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="147"/>
       <c r="B3" s="148"/>
       <c r="C3" s="147"/>
@@ -3992,7 +4014,7 @@
       <c r="AB3" s="74"/>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="149"/>
       <c r="B4" s="148"/>
       <c r="C4" s="149"/>
@@ -4035,7 +4057,7 @@
       <c r="AB4" s="83"/>
       <c r="AC4" s="38"/>
     </row>
-    <row r="5" spans="1:29" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="149"/>
       <c r="B5" s="148"/>
       <c r="C5" s="149"/>
@@ -4066,7 +4088,7 @@
       <c r="AB5" s="83"/>
       <c r="AC5" s="38"/>
     </row>
-    <row r="6" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="150">
         <v>3286.43</v>
       </c>
@@ -4120,7 +4142,7 @@
       <c r="AB6" s="83"/>
       <c r="AC6" s="38"/>
     </row>
-    <row r="7" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="55"/>
       <c r="B7" s="151"/>
       <c r="C7" s="55"/>
@@ -4169,7 +4191,7 @@
       <c r="AB7" s="83"/>
       <c r="AC7" s="38"/>
     </row>
-    <row r="8" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="55"/>
       <c r="B8" s="151"/>
       <c r="C8" s="55"/>
@@ -4219,7 +4241,7 @@
       <c r="AB8" s="83"/>
       <c r="AC8" s="38"/>
     </row>
-    <row r="9" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="55"/>
       <c r="B9" s="151"/>
       <c r="C9" s="55"/>
@@ -4273,7 +4295,7 @@
       <c r="AB9" s="83"/>
       <c r="AC9" s="38"/>
     </row>
-    <row r="10" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="55"/>
       <c r="B10" s="151"/>
       <c r="C10" s="55"/>
@@ -4321,7 +4343,7 @@
       <c r="AB10" s="83"/>
       <c r="AC10" s="38"/>
     </row>
-    <row r="11" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="55"/>
       <c r="B11" s="151"/>
       <c r="C11" s="55"/>
@@ -4365,7 +4387,7 @@
       <c r="AB11" s="83"/>
       <c r="AC11" s="38"/>
     </row>
-    <row r="12" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="55"/>
       <c r="B12" s="151"/>
       <c r="C12" s="55"/>
@@ -4411,7 +4433,7 @@
       <c r="AB12" s="83"/>
       <c r="AC12" s="38"/>
     </row>
-    <row r="13" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="55"/>
       <c r="B13" s="151"/>
       <c r="C13" s="55"/>
@@ -4467,7 +4489,7 @@
       <c r="AB13" s="83"/>
       <c r="AC13" s="38"/>
     </row>
-    <row r="14" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="55"/>
       <c r="B14" s="151"/>
       <c r="C14" s="55"/>
@@ -4521,7 +4543,7 @@
       <c r="AB14" s="83"/>
       <c r="AC14" s="38"/>
     </row>
-    <row r="15" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="159"/>
       <c r="B15" s="160"/>
       <c r="C15" s="159"/>
@@ -4575,7 +4597,7 @@
       <c r="AB15" s="83"/>
       <c r="AC15" s="38"/>
     </row>
-    <row r="16" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="152">
         <f>SUM(A6:A15)</f>
         <v>3286.43</v>
@@ -4627,7 +4649,7 @@
       <c r="AB16" s="83"/>
       <c r="AC16" s="38"/>
     </row>
-    <row r="17" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="144"/>
       <c r="B17" s="144"/>
       <c r="C17" s="144"/>
@@ -4650,7 +4672,7 @@
       <c r="R17" s="117"/>
       <c r="S17" s="118">
         <f>'TABELA INSS - 2022'!G4</f>
-        <v>264.30319999999995</v>
+        <v>483.92000000000007</v>
       </c>
       <c r="T17" s="116"/>
       <c r="U17" s="38"/>
@@ -4669,7 +4691,7 @@
       <c r="AB17" s="83"/>
       <c r="AC17" s="38"/>
     </row>
-    <row r="18" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="153"/>
       <c r="B18" s="153"/>
       <c r="C18" s="144"/>
@@ -4681,7 +4703,7 @@
       <c r="G18" s="136"/>
       <c r="H18" s="137">
         <f>S17</f>
-        <v>264.30319999999995</v>
+        <v>483.92000000000007</v>
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -4705,7 +4727,7 @@
       <c r="AB18" s="129"/>
       <c r="AC18" s="38"/>
     </row>
-    <row r="19" spans="1:29" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="144"/>
       <c r="B19" s="144"/>
       <c r="C19" s="144"/>
@@ -4741,7 +4763,7 @@
       <c r="AB19" s="38"/>
       <c r="AC19" s="38"/>
     </row>
-    <row r="20" spans="1:29" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="21.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A20" s="153"/>
       <c r="B20" s="153"/>
       <c r="C20" s="144"/>
@@ -4777,7 +4799,7 @@
       <c r="AB20" s="38"/>
       <c r="AC20" s="38"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="144"/>
       <c r="B21" s="144"/>
       <c r="C21" s="144"/>
@@ -4808,7 +4830,7 @@
       <c r="AB21" s="38"/>
       <c r="AC21" s="38"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="F22" s="140"/>
       <c r="G22" s="140"/>
       <c r="O22" s="141" t="s">
@@ -4826,7 +4848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="O23" s="156">
         <v>0.1</v>
       </c>
@@ -4842,7 +4864,7 @@
         <v>1735.99</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="O24" s="156">
         <v>0.2</v>
       </c>
@@ -4858,7 +4880,7 @@
         <v>1867.99</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="O25" s="156">
         <v>0.4</v>
       </c>
@@ -4874,11 +4896,11 @@
         <v>2435.79</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="E29" s="161"/>
       <c r="H29" s="140"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="E30" s="161"/>
       <c r="H30" s="140"/>
     </row>

--- a/PYTHON/CALCULAR IR - INSS  - Atual.xlsx
+++ b/PYTHON/CALCULAR IR - INSS  - Atual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luana\Documents\GitHub\ALURA\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1690A1AC-42A4-457F-80BF-DE9B5E8A2E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C190C3E5-5FC5-41E1-8897-F4757A2DF1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1996,6 +1996,15 @@
     <xf numFmtId="164" fontId="33" fillId="35" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="21" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="23" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="31" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2058,15 +2067,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="21" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="23" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2523,8 +2523,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2601,25 +2601,25 @@
         <v>38</v>
       </c>
       <c r="D2" s="40"/>
-      <c r="E2" s="177" t="s">
+      <c r="E2" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="179"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="182"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
-      <c r="O2" s="177" t="s">
+      <c r="O2" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="179"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="182"/>
       <c r="T2" s="38"/>
       <c r="U2" s="38"/>
       <c r="V2" s="38"/>
@@ -2631,7 +2631,7 @@
       <c r="Z2" s="38"/>
       <c r="AA2" s="170">
         <f>S16+H11+H10</f>
-        <v>1673.5125</v>
+        <v>525.92250000000001</v>
       </c>
       <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="150">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="63" t="s">
@@ -2760,16 +2760,16 @@
         <v>5000</v>
       </c>
       <c r="I6" s="39"/>
-      <c r="J6" s="181" t="s">
+      <c r="J6" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
       <c r="N6" s="39"/>
       <c r="O6" s="67">
         <f>H8</f>
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="P6" s="68"/>
       <c r="Q6" s="67">
@@ -2809,7 +2809,7 @@
       <c r="G7" s="65"/>
       <c r="H7" s="45">
         <f>C16</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="168" t="s">
@@ -2821,7 +2821,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="164">
         <f>H9/K7</f>
-        <v>16.130749999999999</v>
+        <v>17.530750000000001</v>
       </c>
       <c r="N7" s="39"/>
       <c r="O7" s="54"/>
@@ -2860,7 +2860,7 @@
       <c r="G8" s="84"/>
       <c r="H8" s="51">
         <f>H6-H7</f>
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="167" t="s">
@@ -2905,14 +2905,14 @@
       <c r="B9" s="151"/>
       <c r="C9" s="55"/>
       <c r="D9" s="41"/>
-      <c r="E9" s="196" t="s">
+      <c r="E9" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="196"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="198">
+      <c r="F9" s="175"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="177">
         <f>S16</f>
-        <v>483.92250000000001</v>
+        <v>525.92250000000001</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="167" t="s">
@@ -2933,7 +2933,7 @@
       <c r="P9" s="75"/>
       <c r="Q9" s="54">
         <f>IF(O6-O8&lt;=0,0,O6-O8)</f>
-        <v>3380</v>
+        <v>3680</v>
       </c>
       <c r="R9" s="89"/>
       <c r="S9" s="54"/>
@@ -2967,13 +2967,13 @@
       <c r="F10" s="44"/>
       <c r="G10" s="42"/>
       <c r="H10" s="45">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="180" t="s">
+      <c r="J10" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="180"/>
+      <c r="K10" s="183"/>
       <c r="L10" s="38"/>
       <c r="M10" s="158">
         <f>M9+M8</f>
@@ -3015,12 +3015,12 @@
         <v>4</v>
       </c>
       <c r="F11" s="166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="101"/>
       <c r="H11" s="48">
         <f>AA17*F11</f>
-        <v>189.59</v>
+        <v>0</v>
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
@@ -3034,7 +3034,7 @@
       <c r="P11" s="75"/>
       <c r="Q11" s="54">
         <f>IF(Q9-O10&lt;=0,0,Q9-O10)</f>
-        <v>2128.71</v>
+        <v>2428.71</v>
       </c>
       <c r="R11" s="89"/>
       <c r="S11" s="54"/>
@@ -3069,15 +3069,15 @@
       <c r="G12" s="173"/>
       <c r="H12" s="174">
         <f>IF((H9+H10+H11)&lt;=AA6,AA6,(H9+H10+H11))</f>
-        <v>1673.5125</v>
+        <v>528</v>
       </c>
       <c r="I12" s="39"/>
-      <c r="J12" s="181" t="s">
+      <c r="J12" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
       <c r="N12" s="39"/>
       <c r="O12" s="53">
         <f>IF(Q11&lt;=O11-O9,Q11,O11-O9)</f>
@@ -3117,7 +3117,7 @@
       <c r="G13" s="100"/>
       <c r="H13" s="52">
         <f>H8-H12</f>
-        <v>3026.4875000000002</v>
+        <v>4472</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="168" t="s">
@@ -3129,7 +3129,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="165">
         <f>H16/K13</f>
-        <v>2.7857708333333355</v>
+        <v>11.815666666666667</v>
       </c>
       <c r="N13" s="39"/>
       <c r="O13" s="54">
@@ -3138,7 +3138,7 @@
       <c r="P13" s="75"/>
       <c r="Q13" s="54">
         <f>IF(Q11-O12&lt;=0,0,Q11-O12)</f>
-        <v>843.06</v>
+        <v>1143.06</v>
       </c>
       <c r="R13" s="89"/>
       <c r="S13" s="54"/>
@@ -3169,12 +3169,12 @@
       </c>
       <c r="F14" s="155">
         <f>IF(H13&lt;2112,0,IF(H13&lt;=2826.65,7.5%,IF(H13&lt;=3751.05,15%,IF(H13&lt;4664.68,22.5%,27.5%))))</f>
-        <v>0.15</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="G14" s="103"/>
       <c r="H14" s="104">
         <f>H13*F14</f>
-        <v>453.97312500000004</v>
+        <v>1006.2</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="167" t="s">
@@ -3191,7 +3191,7 @@
       <c r="N14" s="39"/>
       <c r="O14" s="105">
         <f>Q13</f>
-        <v>843.06</v>
+        <v>1143.06</v>
       </c>
       <c r="P14" s="75"/>
       <c r="Q14" s="105">
@@ -3200,7 +3200,7 @@
       <c r="R14" s="94"/>
       <c r="S14" s="105">
         <f>O14*Q14</f>
-        <v>118.0284</v>
+        <v>160.0284</v>
       </c>
       <c r="T14" s="77"/>
       <c r="U14" s="38"/>
@@ -3225,7 +3225,7 @@
       <c r="G15" s="65"/>
       <c r="H15" s="104">
         <f>IF(F14=0,0,IF(F14=Y9,AA9,IF(F14=Y11,AA11,IF(F14=Y13,AA13,IF(F14=Y15,AA15)))))</f>
-        <v>370.4</v>
+        <v>651.73</v>
       </c>
       <c r="I15" s="39"/>
       <c r="J15" s="167" t="s">
@@ -3248,7 +3248,7 @@
       <c r="R15" s="108"/>
       <c r="S15" s="106">
         <f>SUM(S8:S14)</f>
-        <v>483.92250000000001</v>
+        <v>525.92250000000001</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="38"/>
@@ -3275,7 +3275,7 @@
       <c r="B16" s="151"/>
       <c r="C16" s="152">
         <f>SUM(C6:C15)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="109" t="s">
@@ -3285,13 +3285,13 @@
       <c r="G16" s="111"/>
       <c r="H16" s="112">
         <f>IF(H14-H15&lt;0,0,H14-H15)</f>
-        <v>83.573125000000061</v>
+        <v>354.47</v>
       </c>
       <c r="I16" s="39"/>
-      <c r="J16" s="180" t="s">
+      <c r="J16" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="180"/>
+      <c r="K16" s="183"/>
       <c r="L16" s="39"/>
       <c r="M16" s="163">
         <f>M15+M14</f>
@@ -3306,7 +3306,7 @@
       <c r="R16" s="114"/>
       <c r="S16" s="113">
         <f>IF(S15&lt;=Q6,S15,Q6)</f>
-        <v>483.92250000000001</v>
+        <v>525.92250000000001</v>
       </c>
       <c r="T16" s="116"/>
       <c r="U16" s="38"/>
@@ -3342,7 +3342,7 @@
       <c r="R17" s="117"/>
       <c r="S17" s="118">
         <f>'TABELA INSS - 2022'!G4</f>
-        <v>483.92000000000007</v>
+        <v>525.92000000000007</v>
       </c>
       <c r="T17" s="116"/>
       <c r="U17" s="38"/>
@@ -3373,7 +3373,7 @@
       <c r="G18" s="136"/>
       <c r="H18" s="137">
         <f>S17</f>
-        <v>483.92000000000007</v>
+        <v>525.92000000000007</v>
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -3409,7 +3409,7 @@
       <c r="G19" s="132"/>
       <c r="H19" s="133">
         <f>H16</f>
-        <v>83.573125000000061</v>
+        <v>354.47</v>
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
@@ -3438,14 +3438,14 @@
       <c r="B20" s="153"/>
       <c r="C20" s="144"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="175" t="s">
+      <c r="E20" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="176"/>
+      <c r="F20" s="179"/>
       <c r="G20" s="123"/>
       <c r="H20" s="124">
         <f>H8*8%</f>
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
@@ -3615,36 +3615,36 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="187" t="s">
+      <c r="B2" s="189"/>
+      <c r="C2" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="189" t="s">
+      <c r="D2" s="192" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="191" t="s">
+      <c r="F2" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="192"/>
+      <c r="G2" s="195"/>
       <c r="I2" s="19" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="34">
         <f>'CÁLCULO DE INSS-IRRF'!H8</f>
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="28">
         <f>_xlfn.IFS(J2&lt;=J4,J2*K4,J2&lt;=J5,L4+(J2-J4)*K5,J2&lt;=J6,L4+L5+(J2-J5)*K6,J2&lt;=J7,L4+L5+L6+(J2-J6)*K7,J2&gt;J7,L8)</f>
-        <v>483.92250000000001</v>
+        <v>525.92250000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3654,14 +3654,14 @@
       <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="193"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="6">
         <f>'CÁLCULO DE INSS-IRRF'!H8</f>
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="20"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="G4" s="1">
         <f>IF(G3&lt;=B4,G3*C4,IF(G3&lt;=B5,(G3*C5)-D5,IF(G3&lt;=B6,(G3*C6)-D6,IF(G3&lt;=B7,(G3*C7)-D7,D8))))</f>
-        <v>483.92000000000007</v>
+        <v>525.92000000000007</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="24">
@@ -3783,11 +3783,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="195"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="198"/>
       <c r="D8" s="11">
         <v>876.95</v>
       </c>
@@ -3810,43 +3810,43 @@
       <c r="E9" s="36"/>
     </row>
     <row r="14" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="182"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
     </row>
     <row r="15" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A15" s="183">
+      <c r="A15" s="186">
         <v>876.95</v>
       </c>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
     </row>
     <row r="16" spans="1:12" ht="192.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="184" t="s">
+      <c r="A16" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="184"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -3948,25 +3948,25 @@
         <v>38</v>
       </c>
       <c r="D2" s="40"/>
-      <c r="E2" s="177" t="s">
+      <c r="E2" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="179"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="182"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
-      <c r="O2" s="177" t="s">
+      <c r="O2" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="179"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="182"/>
       <c r="T2" s="38"/>
       <c r="U2" s="38"/>
       <c r="V2" s="38"/>
@@ -4107,12 +4107,12 @@
         <v>3286.43</v>
       </c>
       <c r="I6" s="39"/>
-      <c r="J6" s="181" t="s">
+      <c r="J6" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
       <c r="N6" s="39"/>
       <c r="O6" s="67">
         <f>H8</f>
@@ -4309,10 +4309,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="180" t="s">
+      <c r="J10" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="180"/>
+      <c r="K10" s="183"/>
       <c r="L10" s="38"/>
       <c r="M10" s="158">
         <f>M9+M8</f>
@@ -4402,12 +4402,12 @@
         <v>2799.4070999999999</v>
       </c>
       <c r="I12" s="39"/>
-      <c r="J12" s="181" t="s">
+      <c r="J12" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
       <c r="N12" s="39"/>
       <c r="O12" s="53">
         <f>IF(Q11&lt;=O11-O9,Q11,O11-O9)</f>
@@ -4618,10 +4618,10 @@
         <v>51.55553249999997</v>
       </c>
       <c r="I16" s="39"/>
-      <c r="J16" s="180" t="s">
+      <c r="J16" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="180"/>
+      <c r="K16" s="183"/>
       <c r="L16" s="39"/>
       <c r="M16" s="163">
         <f>M15+M14</f>
@@ -4672,7 +4672,7 @@
       <c r="R17" s="117"/>
       <c r="S17" s="118">
         <f>'TABELA INSS - 2022'!G4</f>
-        <v>483.92000000000007</v>
+        <v>525.92000000000007</v>
       </c>
       <c r="T17" s="116"/>
       <c r="U17" s="38"/>
@@ -4703,7 +4703,7 @@
       <c r="G18" s="136"/>
       <c r="H18" s="137">
         <f>S17</f>
-        <v>483.92000000000007</v>
+        <v>525.92000000000007</v>
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -4768,10 +4768,10 @@
       <c r="B20" s="153"/>
       <c r="C20" s="144"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="175" t="s">
+      <c r="E20" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="176"/>
+      <c r="F20" s="179"/>
       <c r="G20" s="123"/>
       <c r="H20" s="124">
         <f>H8*8%</f>

--- a/PYTHON/CALCULAR IR - INSS  - Atual.xlsx
+++ b/PYTHON/CALCULAR IR - INSS  - Atual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luana\Documents\GitHub\ALURA\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C190C3E5-5FC5-41E1-8897-F4757A2DF1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5CE4F2-6DC2-4781-929A-83C55AA336E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1508,7 +1508,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2067,6 +2067,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2523,7 +2526,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2534,29 +2537,28 @@
     <col min="3" max="3" width="16.1796875" style="154" customWidth="1"/>
     <col min="4" max="4" width="0.81640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="142" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" style="142" customWidth="1"/>
     <col min="7" max="7" width="0.81640625" style="142" customWidth="1"/>
     <col min="8" max="8" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.54296875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="0.54296875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0.81640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="0.81640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15" style="2" customWidth="1"/>
-    <col min="20" max="20" width="2" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.54296875" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0.54296875" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="2" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="2" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="2" customWidth="1"/>
-    <col min="23" max="23" width="27.7265625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.7265625" style="2" customWidth="1"/>
     <col min="24" max="24" width="1.81640625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="142" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.81640625" style="142" customWidth="1"/>
-    <col min="27" max="27" width="21.1796875" style="143" customWidth="1"/>
-    <col min="28" max="28" width="1.7265625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="12.81640625" style="142" customWidth="1"/>
+    <col min="27" max="27" width="15" style="143" customWidth="1"/>
+    <col min="28" max="28" width="1.7265625" style="2" hidden="1" customWidth="1"/>
     <col min="29" max="1027" width="8.54296875" style="2" customWidth="1"/>
     <col min="1028" max="16384" width="9.1796875" style="2"/>
   </cols>
@@ -2631,7 +2633,7 @@
       <c r="Z2" s="38"/>
       <c r="AA2" s="170">
         <f>S16+H11+H10</f>
-        <v>525.92250000000001</v>
+        <v>876.95</v>
       </c>
       <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
@@ -2743,7 +2745,7 @@
     </row>
     <row r="6" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="150">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="B6" s="151"/>
       <c r="C6" s="150">
@@ -2757,7 +2759,7 @@
       <c r="G6" s="65"/>
       <c r="H6" s="66">
         <f>A16</f>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="184" t="s">
@@ -2769,7 +2771,7 @@
       <c r="N6" s="39"/>
       <c r="O6" s="67">
         <f>H8</f>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P6" s="68"/>
       <c r="Q6" s="67">
@@ -2821,7 +2823,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="164">
         <f>H9/K7</f>
-        <v>17.530750000000001</v>
+        <v>29.231666666666669</v>
       </c>
       <c r="N7" s="39"/>
       <c r="O7" s="54"/>
@@ -2860,7 +2862,7 @@
       <c r="G8" s="84"/>
       <c r="H8" s="51">
         <f>H6-H7</f>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="167" t="s">
@@ -2912,7 +2914,7 @@
       <c r="G9" s="176"/>
       <c r="H9" s="177">
         <f>S16</f>
-        <v>525.92250000000001</v>
+        <v>876.95</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="167" t="s">
@@ -2933,7 +2935,7 @@
       <c r="P9" s="75"/>
       <c r="Q9" s="54">
         <f>IF(O6-O8&lt;=0,0,O6-O8)</f>
-        <v>3680</v>
+        <v>6680</v>
       </c>
       <c r="R9" s="89"/>
       <c r="S9" s="54"/>
@@ -3034,7 +3036,7 @@
       <c r="P11" s="75"/>
       <c r="Q11" s="54">
         <f>IF(Q9-O10&lt;=0,0,Q9-O10)</f>
-        <v>2428.71</v>
+        <v>5428.71</v>
       </c>
       <c r="R11" s="89"/>
       <c r="S11" s="54"/>
@@ -3069,7 +3071,7 @@
       <c r="G12" s="173"/>
       <c r="H12" s="174">
         <f>IF((H9+H10+H11)&lt;=AA6,AA6,(H9+H10+H11))</f>
-        <v>528</v>
+        <v>876.95</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="184" t="s">
@@ -3117,7 +3119,7 @@
       <c r="G13" s="100"/>
       <c r="H13" s="52">
         <f>H8-H12</f>
-        <v>4472</v>
+        <v>7123.05</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="168" t="s">
@@ -3129,7 +3131,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="165">
         <f>H16/K13</f>
-        <v>11.815666666666667</v>
+        <v>35.795958333333338</v>
       </c>
       <c r="N13" s="39"/>
       <c r="O13" s="54">
@@ -3138,7 +3140,7 @@
       <c r="P13" s="75"/>
       <c r="Q13" s="54">
         <f>IF(Q11-O12&lt;=0,0,Q11-O12)</f>
-        <v>1143.06</v>
+        <v>4143.0599999999995</v>
       </c>
       <c r="R13" s="89"/>
       <c r="S13" s="54"/>
@@ -3169,12 +3171,12 @@
       </c>
       <c r="F14" s="155">
         <f>IF(H13&lt;2112,0,IF(H13&lt;=2826.65,7.5%,IF(H13&lt;=3751.05,15%,IF(H13&lt;4664.68,22.5%,27.5%))))</f>
-        <v>0.22500000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G14" s="103"/>
       <c r="H14" s="104">
         <f>H13*F14</f>
-        <v>1006.2</v>
+        <v>1958.8387500000001</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="167" t="s">
@@ -3191,7 +3193,7 @@
       <c r="N14" s="39"/>
       <c r="O14" s="105">
         <f>Q13</f>
-        <v>1143.06</v>
+        <v>4143.0599999999995</v>
       </c>
       <c r="P14" s="75"/>
       <c r="Q14" s="105">
@@ -3200,7 +3202,7 @@
       <c r="R14" s="94"/>
       <c r="S14" s="105">
         <f>O14*Q14</f>
-        <v>160.0284</v>
+        <v>580.02840000000003</v>
       </c>
       <c r="T14" s="77"/>
       <c r="U14" s="38"/>
@@ -3225,7 +3227,7 @@
       <c r="G15" s="65"/>
       <c r="H15" s="104">
         <f>IF(F14=0,0,IF(F14=Y9,AA9,IF(F14=Y11,AA11,IF(F14=Y13,AA13,IF(F14=Y15,AA15)))))</f>
-        <v>651.73</v>
+        <v>884.96</v>
       </c>
       <c r="I15" s="39"/>
       <c r="J15" s="167" t="s">
@@ -3248,7 +3250,7 @@
       <c r="R15" s="108"/>
       <c r="S15" s="106">
         <f>SUM(S8:S14)</f>
-        <v>525.92250000000001</v>
+        <v>945.92250000000001</v>
       </c>
       <c r="T15" s="77"/>
       <c r="U15" s="38"/>
@@ -3270,7 +3272,7 @@
     <row r="16" spans="1:29" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="152">
         <f>SUM(A6:A15)</f>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="B16" s="151"/>
       <c r="C16" s="152">
@@ -3285,7 +3287,7 @@
       <c r="G16" s="111"/>
       <c r="H16" s="112">
         <f>IF(H14-H15&lt;0,0,H14-H15)</f>
-        <v>354.47</v>
+        <v>1073.8787500000001</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="183" t="s">
@@ -3306,7 +3308,7 @@
       <c r="R16" s="114"/>
       <c r="S16" s="113">
         <f>IF(S15&lt;=Q6,S15,Q6)</f>
-        <v>525.92250000000001</v>
+        <v>876.95</v>
       </c>
       <c r="T16" s="116"/>
       <c r="U16" s="38"/>
@@ -3342,7 +3344,7 @@
       <c r="R17" s="117"/>
       <c r="S17" s="118">
         <f>'TABELA INSS - 2022'!G4</f>
-        <v>525.92000000000007</v>
+        <v>876.95</v>
       </c>
       <c r="T17" s="116"/>
       <c r="U17" s="38"/>
@@ -3373,7 +3375,7 @@
       <c r="G18" s="136"/>
       <c r="H18" s="137">
         <f>S17</f>
-        <v>525.92000000000007</v>
+        <v>876.95</v>
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -3409,7 +3411,7 @@
       <c r="G19" s="132"/>
       <c r="H19" s="133">
         <f>H16</f>
-        <v>354.47</v>
+        <v>1073.8787500000001</v>
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
@@ -3445,7 +3447,7 @@
       <c r="G20" s="123"/>
       <c r="H20" s="124">
         <f>H8*8%</f>
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
@@ -3566,13 +3568,36 @@
         <v>2435.79</v>
       </c>
     </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="J26" s="2">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="J27" s="199">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="J28" s="2">
+        <f>J26*J27</f>
+        <v>185.4</v>
+      </c>
+    </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="E29" s="161"/>
       <c r="H29" s="140"/>
+      <c r="J29" s="2">
+        <v>158.4</v>
+      </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="E30" s="161"/>
       <c r="H30" s="140"/>
+      <c r="J30" s="1">
+        <f>J28-J29</f>
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -3637,14 +3662,14 @@
       </c>
       <c r="J2" s="34">
         <f>'CÁLCULO DE INSS-IRRF'!H8</f>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="28">
         <f>_xlfn.IFS(J2&lt;=J4,J2*K4,J2&lt;=J5,L4+(J2-J4)*K5,J2&lt;=J6,L4+L5+(J2-J5)*K6,J2&lt;=J7,L4+L5+L6+(J2-J6)*K7,J2&gt;J7,L8)</f>
-        <v>525.92250000000001</v>
+        <v>876.95</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3661,7 +3686,7 @@
       </c>
       <c r="G3" s="6">
         <f>'CÁLCULO DE INSS-IRRF'!H8</f>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="20"/>
@@ -3686,7 +3711,7 @@
       </c>
       <c r="G4" s="1">
         <f>IF(G3&lt;=B4,G3*C4,IF(G3&lt;=B5,(G3*C5)-D5,IF(G3&lt;=B6,(G3*C6)-D6,IF(G3&lt;=B7,(G3*C7)-D7,D8))))</f>
-        <v>525.92000000000007</v>
+        <v>876.95</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="24">
@@ -4672,7 +4697,7 @@
       <c r="R17" s="117"/>
       <c r="S17" s="118">
         <f>'TABELA INSS - 2022'!G4</f>
-        <v>525.92000000000007</v>
+        <v>876.95</v>
       </c>
       <c r="T17" s="116"/>
       <c r="U17" s="38"/>
@@ -4703,7 +4728,7 @@
       <c r="G18" s="136"/>
       <c r="H18" s="137">
         <f>S17</f>
-        <v>525.92000000000007</v>
+        <v>876.95</v>
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
